--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -625,63 +625,69 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>ZCTA5</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>Zip Code Tabulation Area</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Census Bureau designated zip code tabulation area, or the rough area that contains five digit zip codes.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>60637</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -795,7 +801,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -814,17 +820,12 @@
           <t>050US01001-2018</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -844,64 +845,51 @@
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>ZCTA5</t>
+          <t>Und18P</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Zip Code Tabulation Area</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Census Bureau designated zip code tabulation area, or the rough area that contains five digit zip codes.</t>
-        </is>
-      </c>
+          <t>% Population under 18 years old</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+          <t xml:space="preserve">ACS </t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>American Community Survey (5-Year Estimate)</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>60637</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -910,36 +898,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
@@ -955,61 +923,44 @@
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>Und5P</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Total Population</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Total population</t>
-        </is>
-      </c>
+          <t xml:space="preserve">% Population under 5 years old </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1632480</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1017,36 +968,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
@@ -1062,39 +993,31 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Ovr18P</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Percentage of population over 65</t>
-        </is>
-      </c>
+          <t>% Population over 18 years</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1104,12 +1027,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
@@ -1148,18 +1066,18 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>SRatio65</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1182,7 +1100,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1219,18 +1136,18 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>Ovr16P</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
+          <t>% Population over 16 years</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1253,7 +1170,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1290,18 +1206,18 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>Ovr62P</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Median age</t>
+          <t>% Population over 62 years</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1324,7 +1240,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1361,18 +1276,18 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Ovr16P</t>
+          <t>SRatio18</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>% Population over 16 years</t>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1395,7 +1310,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1432,18 +1346,18 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>MaleP</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
+          <t>% Population that is Male</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1466,7 +1380,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1514,7 +1427,7 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1537,7 +1450,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1574,18 +1486,18 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>MedAge</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
+          <t>Median age</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1608,7 +1520,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1617,16 +1528,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
@@ -1642,31 +1573,39 @@
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
+          <t>% Population: Age 65+</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Percentage of population over 65</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -1676,10 +1615,9 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
+          <t>15.77</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1688,16 +1626,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
@@ -1713,44 +1671,51 @@
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
+          <t>Total Population</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Total population</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr"/>
+          <t>1632480</t>
+        </is>
+      </c>
       <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1787,18 +1752,18 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>SRatio</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+          <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -1821,7 +1786,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1858,18 +1822,18 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>FemP</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
+          <t>% Population that is Female</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -1892,7 +1856,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1902,68 +1865,79 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Und5P</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Population under 5 years old </t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
+          <t>Population: Age 45-49</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Total population between age 45-49</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr"/>
+          <t>467768</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2016,22 +1990,22 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Population: Age 20-24</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population between age 20-24</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2051,12 +2025,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>1139347</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>114772</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr"/>
@@ -2111,22 +2080,22 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 65+</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total population at or over age 65</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2146,12 +2115,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>79897</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>257362</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr"/>
@@ -2162,11 +2126,7 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>x</t>
@@ -2199,54 +2159,45 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>122034</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>476486</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr"/>
@@ -2257,26 +2208,10 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2301,22 +2236,22 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>A15_24P</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Total population between age 15-19</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2326,22 +2261,17 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5-Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>68706</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr"/>
@@ -2396,22 +2326,22 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
+          <t>Population: Age 15-19</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Total population between age 20-24</t>
+          <t>Total population between age 15-19</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2431,12 +2361,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>114772</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>68706</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr"/>
@@ -2491,22 +2416,22 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Total population between age 15-44</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -2526,12 +2451,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>784568</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr"/>
@@ -2586,22 +2506,22 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
+          <t>Population: Age 0-4</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Total population between age 55-59</t>
+          <t>Total population between age 0-4</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -2621,12 +2541,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>94082</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>79897</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -2681,22 +2596,22 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
+          <t>Population: Age 55-59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Total population between age 60-64</t>
+          <t>Total population between age 55-59</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -2716,12 +2631,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>90711</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr"/>
@@ -2732,21 +2642,9 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>x</t>
@@ -2769,54 +2667,45 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Total population at or over age 65</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>257362</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>5661461</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr"/>
@@ -2871,22 +2760,22 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
+          <t>Population: Age 60-64</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+          <t>Total population between age 60-64</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -2901,17 +2790,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>90711</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr"/>
@@ -2966,22 +2850,22 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Children %</t>
+          <t>Population: Age 5-14</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Percentage of population under age 18</t>
+          <t>Total population between age 5-14</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -2996,17 +2880,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>122034</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr"/>
@@ -3017,7 +2896,11 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>x</t>
@@ -3050,53 +2933,52 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Total population between age 45-49</t>
+          <t>Percentage of population under age 18</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>467768</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3104,7 +2986,11 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>x</t>
@@ -3137,53 +3023,52 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
+          <t>Population: Age 15-44</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Total population between age 50-54</t>
+          <t>Total population between age 15-44</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>476486</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>784568</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3191,9 +3076,21 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>x</t>
@@ -3216,35 +3113,39 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
+          <t>% Population: Age under 45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Total population at or over age 18</t>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3254,10 +3155,9 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>5661461</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr"/>
+          <t>60.43</t>
+        </is>
+      </c>
       <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -3275,51 +3175,47 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>A15_24P</t>
+          <t>GradSclP</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
-        </is>
-      </c>
+          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5-Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3329,15 +3225,10 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>1980, 1990, and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using the Longitudinal Tract Database crosswalk files. They were then crosswalked to 2010 ZIPs using the 2012 1st quarter TRACT-ZIP crosswalk from Housing and Urban Development. For more on the tract crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm. For more on the TRACT-ZIP crosswalk, see https://www.huduser.gov/portal/datasets/usps_crosswalk.html</t>
-        </is>
-      </c>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3373,18 +3264,18 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>BachelorsP</t>
+          <t>EngProf</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
+          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -3407,7 +3298,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -3444,18 +3334,18 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>EduHsP</t>
+          <t>EduNoHsP</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
+          <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -3478,7 +3368,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3515,18 +3404,18 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>EduNoHsP</t>
+          <t>EduHsP</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with less than a high school diploma</t>
+          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -3549,7 +3438,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3586,18 +3474,18 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>GradSclP</t>
+          <t>BachelorsP</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -3620,7 +3508,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3668,7 +3555,7 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -3691,7 +3578,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3728,18 +3614,18 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>EngProf</t>
+          <t>HsdTypCo</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
+          <t>% Cohabiting couple household</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -3762,7 +3648,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3780,11 +3665,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -3803,45 +3684,40 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>HhldFS</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Total number of people in households</t>
-        </is>
-      </c>
+          <t>% Female householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>7151776</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3859,11 +3735,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -3882,32 +3754,28 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>HhldMS</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Percent of people living in family households that are not related to family</t>
-        </is>
-      </c>
+          <t>% Male householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -3917,10 +3785,9 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -3961,22 +3828,22 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -3996,10 +3863,9 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>25.61</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr"/>
+          <t>3.35</t>
+        </is>
+      </c>
       <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -4036,18 +3902,18 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>FamSize</t>
+          <t>OccupantP</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Average family size</t>
+          <t>% Occupied housing units</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4070,7 +3936,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -4107,18 +3972,18 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>HsdTot</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Average household size</t>
+          <t>Total households</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -4141,7 +4006,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -4178,18 +4042,18 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>HhldFA</t>
+          <t>FamSize</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living alone</t>
+          <t>Average family size</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -4212,7 +4076,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -4249,18 +4112,18 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>HhldFC</t>
+          <t>HsdTypM</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living with children under 18 years</t>
+          <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4283,7 +4146,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -4301,7 +4163,11 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -4320,28 +4186,32 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>HhldFS</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>% Female householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr"/>
+          <t>% Nonrelatives in Non-family Households</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Percent of people living in non-family households that are not related</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -4351,10 +4221,9 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr"/>
+          <t>25.61</t>
+        </is>
+      </c>
       <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -4391,18 +4260,18 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>HhldMA</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living alone</t>
+          <t>Average household size</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -4425,7 +4294,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -4443,7 +4311,11 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -4462,41 +4334,44 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>HhldMC</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
+          <t>Total Population in Households</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Total number of people in households</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr"/>
+          <t>7151776</t>
+        </is>
+      </c>
       <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -4533,18 +4408,18 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>HhldMS</t>
+          <t>HhldMC</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>% Male householder 65 years and over living alone</t>
+          <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -4567,7 +4442,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -4604,18 +4478,18 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>HsdTot</t>
+          <t>HhldMA</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -4638,7 +4512,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -4675,18 +4548,18 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>HsdTypCo</t>
+          <t>HsdTypMC</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>% Cohabiting couple household</t>
+          <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -4709,7 +4582,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4746,18 +4618,18 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>HsdTypM</t>
+          <t>HhldFC</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Married-couple household </t>
+          <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -4780,7 +4652,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -4817,18 +4688,18 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>HsdTypMC</t>
+          <t>HhldFA</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>% Married-couple household With children under 18 years</t>
+          <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -4851,7 +4722,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -4899,7 +4769,7 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -4922,7 +4792,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -4959,18 +4828,18 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t>OccupantP</t>
+          <t>NvMrrdP</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>% Occupied housing units</t>
+          <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -4993,7 +4862,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -5030,18 +4898,18 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>DivrcdP</t>
+          <t>MrrdP</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>% Males 15 years and over who are divorced</t>
+          <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -5064,7 +4932,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -5101,18 +4968,18 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>MrrdP</t>
+          <t>WidwdP</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who are married and living with their spouse</t>
+          <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -5135,7 +5002,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -5172,18 +5038,18 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>NvMrrdP</t>
+          <t>DivrcdP</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who never got married</t>
+          <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -5206,7 +5072,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -5254,7 +5119,7 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -5277,7 +5142,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -5288,14 +5152,26 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
@@ -5314,28 +5190,32 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>WidwdP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>% Population aged 15 and over who are widowed</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
+          <t>% Population with Disability</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -5345,10 +5225,9 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr"/>
+          <t>12.7</t>
+        </is>
+      </c>
       <c r="AD61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -5357,8 +5236,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>x</t>
@@ -5380,44 +5267,40 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -5432,15 +5315,10 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5479,10 +5357,18 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
@@ -5492,32 +5378,32 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Black/African American Populationw</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -5527,12 +5413,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr"/>
@@ -5595,22 +5476,22 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -5630,12 +5511,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr"/>
@@ -5646,36 +5522,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
@@ -5691,39 +5547,31 @@
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>HisP</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
-        </is>
-      </c>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -5733,12 +5581,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>14.81</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr"/>
@@ -5749,36 +5592,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -5794,39 +5617,31 @@
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>TwoRaceP</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
-        </is>
-      </c>
+          <t>% Population identifying as two or more races</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -5836,12 +5651,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr"/>
@@ -5904,22 +5714,22 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -5939,12 +5749,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr"/>
@@ -6007,22 +5812,22 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6042,12 +5847,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr"/>
@@ -6058,16 +5858,36 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
@@ -6083,31 +5903,39 @@
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
+          <t>% Native American/Alaska Native Population</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -6117,10 +5945,9 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr"/>
+          <t>0.43</t>
+        </is>
+      </c>
       <c r="AD69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -6129,56 +5956,76 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr"/>
+          <t>% Asian Population</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Percentage of population with race identified as Asian alone</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -6188,10 +6035,9 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr"/>
+          <t>12.03</t>
+        </is>
+      </c>
       <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -6259,7 +6105,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
@@ -6280,11 +6126,6 @@
       <c r="AB71" t="inlineStr">
         <is>
           <t>25.95</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr"/>
@@ -6295,26 +6136,10 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -6332,39 +6157,35 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>IntrHspWht</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -6374,12 +6195,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr"/>
@@ -6414,22 +6230,22 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>DsmBlk</t>
+          <t>DsmAs</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
+          <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -6449,20 +6265,10 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6494,22 +6300,22 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>IntrBlkWht</t>
+          <t>IsoBlk</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
+          <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Interaction index for Black and non-Hispanic White residents</t>
+          <t>Isolation index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
@@ -6529,20 +6335,10 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6574,22 +6370,22 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>IsoBlk</t>
+          <t>IsoAs</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
+          <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Isolation index for Black and non-Hispanic White residents</t>
+          <t>Isolation index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
@@ -6609,20 +6405,10 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6654,22 +6440,22 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>DsmHsp</t>
+          <t>IsoHsp</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
+          <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
+          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
@@ -6689,20 +6475,10 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6734,22 +6510,22 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>IntrHspWht</t>
+          <t>DsmHsp</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
@@ -6769,20 +6545,10 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6814,22 +6580,22 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>IsoHsp</t>
+          <t>IntrAsWht</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
+          <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
@@ -6849,20 +6615,10 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD78" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6894,22 +6650,22 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>DsmAs</t>
+          <t>IntrBlkWht</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
+          <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
+          <t>Interaction index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -6929,20 +6685,10 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD79" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6974,22 +6720,22 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>IntrAsWht</t>
+          <t>DsmBlk</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
+          <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
@@ -7009,20 +6755,10 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD80" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7033,7 +6769,11 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -7045,64 +6785,62 @@
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>IsoAs</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Isolation index for Asian and non-Hispanic White residents</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="AD81" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7146,71 +6884,62 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr"/>
+          <t>9.58</t>
+        </is>
+      </c>
       <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
@@ -7219,42 +6948,38 @@
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -7264,10 +6989,9 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
       <c r="AD83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -7300,22 +7024,22 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
@@ -7330,24 +7054,15 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD84" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7398,7 +7113,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
@@ -7421,16 +7136,7 @@
           <t>19.16</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7462,32 +7168,32 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -7497,19 +7203,10 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7536,41 +7233,41 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -7580,19 +7277,10 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7619,41 +7307,37 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -7663,19 +7347,10 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD88" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7707,30 +7382,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -7745,7 +7416,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -7753,16 +7424,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7798,22 +7460,22 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
@@ -7833,19 +7495,10 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7877,26 +7530,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -7916,19 +7573,10 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD91" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7960,30 +7608,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -7998,24 +7642,15 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8051,22 +7686,22 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
@@ -8081,24 +7716,15 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8134,22 +7760,22 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
@@ -8164,24 +7790,15 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>18.04</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD94" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8213,30 +7830,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -8256,19 +7869,10 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>35.34</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8300,26 +7904,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
@@ -8334,7 +7942,7 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
@@ -8342,16 +7950,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8391,22 +7990,22 @@
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -8426,19 +8025,10 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>148.18</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8470,26 +8060,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
@@ -8504,24 +8098,11 @@
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8557,22 +8138,22 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
@@ -8587,24 +8168,15 @@
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8636,30 +8208,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -8674,24 +8242,15 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>1744.66</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8727,22 +8286,22 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
@@ -8765,16 +8324,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8810,22 +8360,22 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute walking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -8845,19 +8395,10 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD102" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8889,30 +8430,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -8927,20 +8464,15 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD103" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8991,7 +8523,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -9014,16 +8546,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD104" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9059,22 +8582,22 @@
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Count of methadone providers in 30 minute walking time threshold</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
@@ -9097,16 +8620,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD105" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9138,30 +8652,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
@@ -9176,7 +8686,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
@@ -9184,16 +8694,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD106" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9225,26 +8726,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
@@ -9259,24 +8764,15 @@
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD107" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>165.18</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9308,26 +8804,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
@@ -9342,24 +8842,15 @@
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD108" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9391,30 +8882,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
@@ -9434,19 +8921,10 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>148.18</t>
-        </is>
-      </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD109" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9478,26 +8956,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
@@ -9512,24 +8994,15 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC110" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD110" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1744.66</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9565,22 +9038,22 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -9603,16 +9076,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD111" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9652,22 +9116,22 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -9687,19 +9151,10 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>165.18</t>
-        </is>
-      </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD112" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9735,22 +9190,22 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
@@ -9770,19 +9225,10 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9814,26 +9260,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
@@ -9848,7 +9298,7 @@
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
@@ -9856,16 +9306,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD114" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9884,7 +9325,11 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
@@ -9897,45 +9342,44 @@
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>SAMHSA</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AD115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -9955,7 +9399,11 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
@@ -9968,45 +9416,44 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>SAMHSA</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC116" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
       <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -10027,7 +9474,11 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
@@ -10035,36 +9486,40 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute drive time threshold</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>SAMHSA</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
@@ -10074,10 +9529,9 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr"/>
+          <t>27.39</t>
+        </is>
+      </c>
       <c r="AD117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -10097,67 +9551,62 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC118" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD118" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10176,49 +9625,45 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>BupCntDr60</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
@@ -10228,19 +9673,10 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC119" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD119" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10259,67 +9695,58 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC120" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD120" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10339,11 +9766,7 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr">
@@ -10351,40 +9774,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
@@ -10394,15 +9813,10 @@
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC121" t="inlineStr"/>
-      <c r="AD121" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10422,11 +9836,7 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr">
@@ -10438,50 +9848,45 @@
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>MetCntDr60</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of methadone providers (drive)</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Count of methadone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC122" t="inlineStr"/>
-      <c r="AD122" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10500,58 +9905,57 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>SAMHSA</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC123" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
       <c r="AD123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -10570,12 +9974,12 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
@@ -10584,32 +9988,32 @@
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -10619,19 +10023,10 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="AC124" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD124" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10649,12 +10044,12 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -10667,32 +10062,32 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -10705,16 +10100,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC125" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD125" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10761,7 +10147,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
@@ -10784,16 +10170,7 @@
           <t>58</t>
         </is>
       </c>
-      <c r="AC126" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD126" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10811,46 +10188,50 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
@@ -10860,19 +10241,10 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="AC127" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD127" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10890,50 +10262,46 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -10943,19 +10311,10 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>17.76</t>
-        </is>
-      </c>
-      <c r="AC128" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD128" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11002,7 +10361,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
@@ -11025,16 +10384,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="AC129" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD129" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11066,32 +10416,32 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
@@ -11101,19 +10451,10 @@
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="AC130" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD130" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="AD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11149,32 +10490,32 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
@@ -11184,19 +10525,10 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC131" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD131" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11213,13 +10545,13 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
@@ -11228,54 +10560,45 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Land area of geography in sq miles</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AC132" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD132" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11322,7 +10645,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
@@ -11343,12 +10666,6 @@
       <c r="AB133" t="inlineStr">
         <is>
           <t>421</t>
-        </is>
-      </c>
-      <c r="AC133" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD133" t="inlineStr"/>
@@ -11398,7 +10715,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
@@ -11419,12 +10736,6 @@
       <c r="AB134" t="inlineStr">
         <is>
           <t>0.01</t>
-        </is>
-      </c>
-      <c r="AC134" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD134" t="inlineStr"/>
@@ -11474,7 +10785,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
@@ -11495,12 +10806,6 @@
       <c r="AB135" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="AC135" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr"/>
@@ -11511,26 +10816,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -11542,68 +10831,51 @@
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>874237</t>
-        </is>
-      </c>
-      <c r="AC136" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr"/>
@@ -11681,7 +10953,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
@@ -11702,11 +10974,6 @@
       <c r="AB137" t="inlineStr">
         <is>
           <t>13.28</t>
-        </is>
-      </c>
-      <c r="AC137" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr"/>
@@ -11749,22 +11016,22 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
@@ -11784,10 +11051,9 @@
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="AC138" t="inlineStr"/>
+          <t>46.11</t>
+        </is>
+      </c>
       <c r="AD138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -11796,10 +11062,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -11825,48 +11107,51 @@
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="AC139" t="inlineStr"/>
+          <t>874237</t>
+        </is>
+      </c>
       <c r="AD139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -11922,7 +11207,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
@@ -11945,7 +11230,6 @@
           <t>37.28</t>
         </is>
       </c>
-      <c r="AC140" t="inlineStr"/>
       <c r="AD140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -11986,22 +11270,22 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
@@ -12021,10 +11305,9 @@
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>46.11</t>
-        </is>
-      </c>
-      <c r="AC141" t="inlineStr"/>
+          <t>6.39</t>
+        </is>
+      </c>
       <c r="AD141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -12042,47 +11325,55 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
@@ -12092,10 +11383,9 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="AC142" t="inlineStr"/>
+          <t>19.99</t>
+        </is>
+      </c>
       <c r="AD142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -12107,7 +11397,11 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -12128,47 +11422,42 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="AC143" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr"/>
@@ -12199,26 +11488,30 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Urban/Suburban/Rural</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X144" t="inlineStr">
@@ -12238,10 +11531,9 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC144" t="inlineStr"/>
+          <t>Urban</t>
+        </is>
+      </c>
       <c r="AD144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -12253,7 +11545,11 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -12289,7 +11585,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
@@ -12312,19 +11608,34 @@
           <t>1.1</t>
         </is>
       </c>
-      <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -12336,58 +11647,65 @@
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="AC146" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
       <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -12396,21 +11714,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
           <t>x</t>
@@ -12441,61 +11747,48 @@
       </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="AC147" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD147" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>36888</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12503,21 +11796,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>x</t>
@@ -12548,61 +11829,48 @@
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AC148" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD148" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12610,9 +11878,21 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>x</t>
@@ -12643,48 +11923,51 @@
       </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>34148</t>
-        </is>
-      </c>
-      <c r="AC149" t="inlineStr"/>
+          <t>5.7</t>
+        </is>
+      </c>
       <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -12729,22 +12012,22 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
@@ -12759,15 +12042,14 @@
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr"/>
+          <t>0.46</t>
+        </is>
+      </c>
       <c r="AD150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -12779,65 +12061,53 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
@@ -12847,10 +12117,9 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="AC151" t="inlineStr"/>
+          <t>8.79</t>
+        </is>
+      </c>
       <c r="AD151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -12906,7 +12175,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
@@ -12929,7 +12198,6 @@
           <t>3513856</t>
         </is>
       </c>
-      <c r="AC152" t="inlineStr"/>
       <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -12970,22 +12238,22 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>Percentage of population employed in educational services industry</t>
+          <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
@@ -13005,12 +12273,7 @@
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AD153" t="inlineStr"/>
@@ -13068,7 +12331,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
@@ -13089,11 +12352,6 @@
       <c r="AB154" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AC154" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD154" t="inlineStr"/>
@@ -13151,7 +12409,7 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X155" t="inlineStr">
@@ -13172,11 +12430,6 @@
       <c r="AB155" t="inlineStr">
         <is>
           <t>13.13</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD155" t="inlineStr"/>
@@ -13219,22 +12472,22 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>EduP</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Employed % - Education</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Percentage of population employed in retail trade industry</t>
+          <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X156" t="inlineStr">
@@ -13254,12 +12507,7 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AC156" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="AD156" t="inlineStr"/>
@@ -13317,7 +12565,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -13340,7 +12588,6 @@
           <t>42.96</t>
         </is>
       </c>
-      <c r="AC157" t="inlineStr"/>
       <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -13388,7 +12635,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
@@ -13411,7 +12658,6 @@
           <t>1509709</t>
         </is>
       </c>
-      <c r="AC158" t="inlineStr"/>
       <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -13456,22 +12702,22 @@
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 1: Socioeconomic</t>
+          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
@@ -13491,12 +12737,7 @@
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC159" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="AD159" t="inlineStr"/>
@@ -13539,22 +12780,22 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+          <t>Overall summary ranking</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
@@ -13574,12 +12815,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AD160" t="inlineStr"/>
@@ -13637,7 +12873,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
@@ -13658,11 +12894,6 @@
       <c r="AB161" t="inlineStr">
         <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC161" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
       <c r="AD161" t="inlineStr"/>
@@ -13709,22 +12940,22 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
+          <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
@@ -13744,12 +12975,7 @@
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AD162" t="inlineStr"/>
@@ -13792,22 +13018,22 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Overall summary ranking</t>
+          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X163" t="inlineStr">
@@ -13827,12 +13053,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="AC163" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AD163" t="inlineStr"/>

--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7548,7 +7548,11 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
@@ -7611,7 +7615,11 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
@@ -7674,7 +7682,11 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr">
         <is>
           <t>x</t>
@@ -10025,7 +10037,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -10039,41 +10051,41 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>TlBupCntBk30</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
         </is>
       </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr"/>
@@ -10088,7 +10100,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -10102,41 +10114,41 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>TlBupCntDr30</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
         </is>
       </c>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr"/>
@@ -10151,7 +10163,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -10165,45 +10177,41 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>TlBupCntDr60</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
         </is>
       </c>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr"/>
@@ -10218,7 +10226,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -10231,42 +10239,42 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>TlBupCntWk30</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
         </is>
       </c>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr"/>
@@ -10281,7 +10289,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -10294,42 +10302,42 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr"/>
@@ -10344,7 +10352,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -10357,46 +10365,42 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr"/>
@@ -10411,7 +10415,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10425,41 +10429,41 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr"/>
@@ -10474,7 +10478,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -10488,41 +10492,41 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr"/>
@@ -10537,7 +10541,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10559,27 +10563,27 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
@@ -10604,7 +10608,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -10626,33 +10630,37 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr"/>
@@ -10667,7 +10675,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -10689,33 +10697,41 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr"/>
@@ -10730,7 +10746,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -10743,46 +10759,42 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr"/>
@@ -10797,24 +10809,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -10824,28 +10836,28 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr"/>
@@ -10860,55 +10872,59 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr"/>
@@ -10923,17 +10939,13 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -10941,41 +10953,45 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr"/>
@@ -10985,12 +11001,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11002,11 +11018,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
@@ -11015,38 +11027,38 @@
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr"/>
@@ -11056,12 +11068,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11073,43 +11085,51 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr"/>
@@ -11119,12 +11139,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11136,51 +11156,43 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>HcvCntDr</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Count of HCV Providers</t>
         </is>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr"/>
@@ -11190,12 +11202,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11207,51 +11219,43 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>HcvMinDis</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr"/>
@@ -11261,12 +11265,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11278,51 +11282,43 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>HcvTmDr</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr"/>
@@ -11332,12 +11328,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11349,51 +11345,43 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>HivCntDr</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Count of HIV Providers</t>
         </is>
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr"/>
@@ -11403,12 +11391,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11420,51 +11408,43 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>HivMinDis</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr"/>
@@ -11474,72 +11454,60 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>HivTmDr</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr"/>
@@ -11549,12 +11517,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11567,42 +11535,46 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr"/>
@@ -11612,32 +11584,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
@@ -11646,38 +11610,38 @@
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr"/>
@@ -11687,32 +11651,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
@@ -11721,38 +11677,42 @@
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr"/>
@@ -11762,29 +11722,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Urban/Suburban/Rural Classification</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
           <t>x</t>
@@ -11795,55 +11743,39 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr"/>
@@ -11853,29 +11785,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Urban/Suburban/Rural Classification</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
           <t>x</t>
@@ -11886,55 +11806,39 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr"/>
@@ -11944,68 +11848,64 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr"/>
@@ -12015,12 +11915,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12038,49 +11938,37 @@
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr"/>
@@ -12090,12 +11978,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12119,39 +12007,39 @@
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr"/>
@@ -12161,12 +12049,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -12190,39 +12078,39 @@
         </is>
       </c>
       <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr"/>
@@ -12232,12 +12120,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Composite</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Social Vulnerability Indices</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -12261,48 +12149,1019 @@
         </is>
       </c>
       <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>CDC 2018, 2020, 2022</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>RetailP</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>Employed % - Retail</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>ACS 2018, 2023</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Employment Trends</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>TotWrkE</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>Count of Working Population</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>ACS 2018, 2023</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Great Recession Foreclosure Rate</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>GiniCoeff</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>Income Inequality (Gini Coefficient)</t>
+        </is>
+      </c>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>HUD 2018; ACS 2012, 2018</t>
+        </is>
+      </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+        </is>
+      </c>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Internet Access</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>NoIntP</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>Households without Internet Access %</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>ACS 2019</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+        </is>
+      </c>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>MedInc</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>Median Income</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>PciE</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>Per Capita Income</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>PovP</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>Poverty %</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>UnempP</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>Unemployment %</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>SviSmryRnk</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>SviTh1</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 1</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>SviTh2</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 2</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>SviTh3</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 3</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Composite</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Indices</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>SviTh4</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>Social Vulnerability Index (SVI) 4</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>CDC 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +444,18 @@
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="30" customWidth="1" min="22" max="22"/>
-    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="30" customWidth="1" min="23" max="23"/>
     <col width="25" customWidth="1" min="24" max="24"/>
     <col width="25" customWidth="1" min="25" max="25"/>
     <col width="25" customWidth="1" min="26" max="26"/>
     <col width="25" customWidth="1" min="27" max="27"/>
     <col width="25" customWidth="1" min="28" max="28"/>
-    <col width="100" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="29" max="29"/>
+    <col width="100" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,60 +546,65 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Analysis</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Longitudinal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Metadata Location</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Source Long</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Example</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -695,41 +701,46 @@
           <t>x</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>HEROP_ID</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018;</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018 Shapefiles &amp; U.S. Census Bureau Cartographic Boundary Files</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -785,46 +796,47 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>ZCTA5</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Zip Code Tabulation Area</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018;</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Tiger/Line 2010, 2018 Shapefiles &amp; U.S. Census Bureau Cartographic Boundary Files</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -879,35 +891,36 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>BachelorsP</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -966,35 +979,36 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>EduHsP</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1053,35 +1067,36 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>EduNoHsP</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1124,35 +1139,36 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>EngProf</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1207,35 +1223,36 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t>GradSclP</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>% Population aged 25 years and over with a graduate or professional degree</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1294,35 +1311,36 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t>SomeCollegeP</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>% Population 25 years and over with some college, but no degree</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>American Community Survey 5-Year Estimates (2020??)</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1361,35 +1379,36 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>CrowdHsng</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1428,35 +1447,36 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>DivrcdP</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1495,35 +1515,36 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t>FamSize</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Average family size</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1562,35 +1583,36 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>HHSize</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Average household size</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1629,35 +1651,36 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t>HhldFA</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1696,35 +1719,36 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t>HhldFC</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1763,35 +1787,36 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>HhldFS</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>% Female householder 65 years and over living alone</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1830,35 +1855,36 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t>HhldMA</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1897,35 +1923,36 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
         <is>
           <t>HhldMC</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1964,35 +1991,36 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
         <is>
           <t>HhldMS</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>% Male householder 65 years and over living alone</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2031,35 +2059,36 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t>HsdTot</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Total households</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2098,35 +2127,36 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
         <is>
           <t>HsdTypCo</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>% Cohabiting couple household</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2165,35 +2195,36 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
         <is>
           <t>HsdTypM</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2232,35 +2263,36 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
         <is>
           <t>HsdTypMC</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2299,35 +2331,36 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
         <is>
           <t>MrrdP</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2370,35 +2403,36 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
         <is>
           <t>NonRelFhhP</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2441,35 +2475,36 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
         <is>
           <t>NonRelNfhhP</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2508,35 +2543,36 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t>NvMrrdP</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2575,35 +2611,36 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>OccupantP</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>% Occupied housing units</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2642,35 +2679,36 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>SepartedP</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>% Males aged 15 years and over who are separated from their spouse</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2713,35 +2751,36 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>TotPopHh</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>Total Population in Households</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2020</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2780,35 +2819,36 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>WidwdP</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>ACS 2020, 2023</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>American Community Survey 2020, 2023</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2859,35 +2899,36 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>DisbP</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>% Population with Disability</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>ACS 2012, 2018, 2023; IPUMS NHGIS 2000</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012, 2014-2018, &amp; 2019-2023 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems, 2000</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2937,40 +2978,41 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
           <t>Age15_44</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>% Population: Age 15-44</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3020,40 +3062,41 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
           <t>Age15_44P</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>% Population: Age 15-44</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3103,40 +3146,41 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>ChildrenP</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>Children %</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3195,35 +3239,36 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>FemP</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>% Population that is Female</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3282,35 +3327,36 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
         <is>
           <t>MaleP</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>% Population that is Male</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3349,35 +3395,36 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>MedAge</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>Median age</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3428,35 +3475,36 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t>Ovr16</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>Count persons over 16 years</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3515,35 +3563,36 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>Ovr16P</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>% Population over 16 years</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3594,35 +3643,36 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>Ovr18</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>Count persons over 18 years</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3681,35 +3731,36 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
         <is>
           <t>Ovr18P</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>% Population over 18 years</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3760,35 +3811,36 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
         <is>
           <t>Ovr21</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>Count persons over 21 years</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3847,35 +3899,36 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
         <is>
           <t>Ovr21P</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>% Population over 21 years</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3914,35 +3967,36 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
         <is>
           <t>Ovr62P</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>% Population over 62 years</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3992,40 +4046,41 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
           <t>Ovr65</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4083,40 +4138,41 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
           <t>Ovr65P</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>% Population: Age 65+</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4175,35 +4231,36 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
         <is>
           <t>SRatio</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4262,35 +4319,36 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>SRatio18</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4349,35 +4407,36 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>SRatio65</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4435,40 +4494,41 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
           <t>TotPop</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4507,35 +4567,36 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
         <is>
           <t>Und18P</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>% Population under 18 years old</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr">
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4589,40 +4650,41 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
           <t>AmIndE</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>Count Native American/Alaska Native Population</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr">
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4680,40 +4742,41 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
           <t>AmIndP</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr">
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Z54" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4767,40 +4830,41 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
           <t>AsianE</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>Count Asian Population</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4854,40 +4918,41 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
           <t>AsianP</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>% Asian Population</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4941,40 +5006,41 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
           <t>BlackE</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>Count Black/African American Populationw</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr">
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5032,40 +5098,41 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
           <t>BlackP</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>% Black/African American Populationw</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr">
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5120,35 +5187,36 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
         <is>
           <t>HisE</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>Count Hispanic/Latinx Population</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr">
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5203,35 +5271,36 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
         <is>
           <t>HisP</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="Z60" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5281,40 +5350,41 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
           <t>HispP</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5356,40 +5426,41 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
           <t>OtherE</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>Count Other (race) Population</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr">
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5447,40 +5518,41 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
           <t>OtherP</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>% Other (race) Population</t>
         </is>
       </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5534,40 +5606,41 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
           <t>PacIsE</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>Count Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr">
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5625,40 +5698,41 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
           <t>PacIsP</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr">
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5701,35 +5775,36 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
         <is>
           <t>TwoRaceE</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>Count Population identifying as two or more races</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr">
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
+      <c r="AA66" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5776,35 +5851,36 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
         <is>
           <t>TwoRaceP</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>% Population identifying as two or more races</t>
         </is>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr">
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5858,40 +5934,41 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
           <t>WhiteE</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>Count White Population</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr">
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5949,40 +6026,41 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
           <t>WhiteP</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>% White Population</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr">
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr">
+      <c r="Z69" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020; IPUMS 1980, 1990, 2000</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
+      <c r="AA69" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
-      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6021,35 +6099,36 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
         <is>
           <t>DsmAs</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr">
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6088,35 +6167,36 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
         <is>
           <t>DsmBlk</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr">
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6155,35 +6235,36 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
         <is>
           <t>DsmHsp</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr">
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="Z72" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AA72" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6222,35 +6303,36 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
         <is>
           <t>IntrAsWht</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr">
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AA73" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6289,35 +6371,36 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
         <is>
           <t>IntrBlkWht</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr">
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
+      <c r="AA74" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6356,35 +6439,36 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
         <is>
           <t>IntrHspWht</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr">
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6423,35 +6507,36 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
         <is>
           <t>IsoAs</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr">
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="Z76" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AA76" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6490,35 +6575,36 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
         <is>
           <t>IsoBlk</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr">
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="Z77" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AA77" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6557,35 +6643,36 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
         <is>
           <t>IsoHsp</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr">
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr">
+      <c r="Z78" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AA78" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6632,35 +6719,36 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
         <is>
           <t>TotVetPop</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>Total Veteran Population</t>
         </is>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr">
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AA79" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6707,35 +6795,36 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
         <is>
           <t>VetP</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>% Veteran Population</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
+      <c r="Z80" t="inlineStr">
         <is>
           <t>ACS 2018, 2023; Census 2010, 2020</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AA80" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates; 2010 &amp; 2020 Decennial Census</t>
         </is>
       </c>
-      <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6770,35 +6859,36 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
         <is>
           <t>AlcDens</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>Alcohol Outlets Density</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr">
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="AA81" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6833,35 +6923,36 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
         <is>
           <t>AlcPerCap</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr">
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr">
+      <c r="Z82" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="AA82" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6896,35 +6987,36 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
         <is>
           <t>AlcTot</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>Total Alcohol Outlets</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr">
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr">
+      <c r="Z83" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
+      <c r="AA83" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6959,35 +7051,36 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
         <is>
           <t>AreaSqMi</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>Land Area (Square Miles)</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr">
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr">
+      <c r="Z84" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGroup 2018 </t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="AA84" t="inlineStr">
         <is>
           <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
-      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7022,35 +7115,36 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
         <is>
           <t>Ndvi</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>NDVI Average</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr">
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr">
+      <c r="Z85" t="inlineStr">
         <is>
           <t>Tiger/Line 2018; Sentinel-2 MSI 2018; OSM</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="AA85" t="inlineStr">
         <is>
           <t>Tiger/Line 2018 Shapefiles; Sentinel 2 MSI: MultiSpectral Instrument Level-1 C, 2018; OpenStreetMap Contributors</t>
         </is>
       </c>
-      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7093,35 +7187,36 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
         <is>
           <t>LngTermP</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr">
+      <c r="W86" t="inlineStr">
         <is>
           <t>Long-Term Occupancy %</t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr">
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr">
+      <c r="Z86" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
+      <c r="AA86" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7164,35 +7259,36 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
         <is>
           <t>MobileP</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>Mobile Homes %</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr">
+      <c r="Z87" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="AA87" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7235,35 +7331,36 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
         <is>
           <t>RentalP</t>
         </is>
       </c>
-      <c r="V88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>Rentals %</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr">
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr">
+      <c r="Z88" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="AA88" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7321,40 +7418,41 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
           <t>TotUnits</t>
         </is>
       </c>
-      <c r="V89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>Total Occupied Housing Units</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr">
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y89" t="inlineStr">
+      <c r="Z89" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
+      <c r="AA89" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7397,35 +7495,36 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr">
         <is>
           <t>UnitDens</t>
         </is>
       </c>
-      <c r="V90" t="inlineStr">
+      <c r="W90" t="inlineStr">
         <is>
           <t>Housing Unit Density</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr">
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr">
+      <c r="Z90" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
+      <c r="AA90" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7483,40 +7582,41 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
           <t>VacantP</t>
         </is>
       </c>
-      <c r="V91" t="inlineStr">
+      <c r="W91" t="inlineStr">
         <is>
           <t>Vacant Housing Units %</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr">
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr">
+      <c r="Z91" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
+      <c r="AA91" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7548,42 +7648,43 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
         <is>
           <t>HospCntDr</t>
         </is>
       </c>
-      <c r="V92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr">
+      <c r="Z92" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
+      <c r="AA92" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7615,42 +7716,43 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
         <is>
           <t>HospMinDis</t>
         </is>
       </c>
-      <c r="V93" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr">
+      <c r="Z93" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="AA93" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7682,46 +7784,47 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
         <is>
           <t>HospTmDr</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr">
+      <c r="W94" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr">
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Z94" t="inlineStr">
         <is>
           <t>CovidCareMap 2020</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
+      <c r="AA94" t="inlineStr">
         <is>
           <t>CovidCareMap, 2020</t>
         </is>
       </c>
-      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7753,42 +7856,43 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
         <is>
           <t>BupCntBk30</t>
         </is>
       </c>
-      <c r="V95" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr">
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr">
+      <c r="Z95" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
+      <c r="AA95" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7820,42 +7924,43 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
         <is>
           <t>BupCntBk60</t>
         </is>
       </c>
-      <c r="V96" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr">
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr">
+      <c r="Z96" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
+      <c r="AA96" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7887,42 +7992,43 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr">
         <is>
           <t>BupCntDr30</t>
         </is>
       </c>
-      <c r="V97" t="inlineStr">
+      <c r="W97" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr">
+      <c r="Z97" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="AA97" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7950,42 +8056,43 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr">
         <is>
           <t>BupCntDr60</t>
         </is>
       </c>
-      <c r="V98" t="inlineStr">
+      <c r="W98" t="inlineStr">
         <is>
           <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr">
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr">
+      <c r="Z98" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
+      <c r="AA98" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8017,42 +8124,43 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr">
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr">
         <is>
           <t>BupCntWk30</t>
         </is>
       </c>
-      <c r="V99" t="inlineStr">
+      <c r="W99" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr">
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr">
+      <c r="Z99" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
+      <c r="AA99" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8084,42 +8192,43 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr">
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
         <is>
           <t>BupCntWk60</t>
         </is>
       </c>
-      <c r="V100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr">
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr">
+      <c r="Z100" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
+      <c r="AA100" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8151,42 +8260,43 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr">
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr">
         <is>
           <t>BupMinDis</t>
         </is>
       </c>
-      <c r="V101" t="inlineStr">
+      <c r="W101" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr">
+      <c r="Z101" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
+      <c r="AA101" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8218,46 +8328,47 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr">
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr">
         <is>
           <t>BupTmBk</t>
         </is>
       </c>
-      <c r="V102" t="inlineStr">
+      <c r="W102" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr">
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr">
+      <c r="Z102" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
+      <c r="AA102" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8289,46 +8400,47 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
         <is>
           <t>BupTmDr</t>
         </is>
       </c>
-      <c r="V103" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr">
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr">
+      <c r="Z103" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
+      <c r="AA103" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8360,46 +8472,47 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr">
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr">
         <is>
           <t>BupTmWk</t>
         </is>
       </c>
-      <c r="V104" t="inlineStr">
+      <c r="W104" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr">
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr">
+      <c r="Z104" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
+      <c r="AA104" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8431,42 +8544,43 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr">
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr">
         <is>
           <t>MetCntBk30</t>
         </is>
       </c>
-      <c r="V105" t="inlineStr">
+      <c r="W105" t="inlineStr">
         <is>
           <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr">
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Z105" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
+      <c r="AA105" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8498,42 +8612,43 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr">
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr">
         <is>
           <t>MetCntBk60</t>
         </is>
       </c>
-      <c r="V106" t="inlineStr">
+      <c r="W106" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr">
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y106" t="inlineStr">
+      <c r="Z106" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
+      <c r="AA106" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8565,42 +8680,43 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr">
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr">
         <is>
           <t>MetCntDr30</t>
         </is>
       </c>
-      <c r="V107" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr">
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr">
+      <c r="Z107" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
+      <c r="AA107" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8628,42 +8744,43 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr">
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
         <is>
           <t>MetCntDr60</t>
         </is>
       </c>
-      <c r="V108" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>Count of methadone providers (drive)</t>
         </is>
       </c>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr">
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr">
+      <c r="Z108" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
+      <c r="AA108" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8695,42 +8812,43 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr">
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr">
         <is>
           <t>MetCntWk30</t>
         </is>
       </c>
-      <c r="V109" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr">
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y109" t="inlineStr">
+      <c r="Z109" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
+      <c r="AA109" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8762,42 +8880,43 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr">
         <is>
           <t>MetCntWk60</t>
         </is>
       </c>
-      <c r="V110" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr">
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y110" t="inlineStr">
+      <c r="Z110" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
+      <c r="AA110" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
       <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8829,42 +8948,43 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr">
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr">
         <is>
           <t>MetMinDis</t>
         </is>
       </c>
-      <c r="V111" t="inlineStr">
+      <c r="W111" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr">
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
+      <c r="Z111" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
+      <c r="AA111" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8896,46 +9016,47 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
         <is>
           <t>MetTmBk</t>
         </is>
       </c>
-      <c r="V112" t="inlineStr">
+      <c r="W112" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr">
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y112" t="inlineStr">
+      <c r="Z112" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
+      <c r="AA112" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
       <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8967,46 +9088,47 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
         <is>
           <t>MetTmDr</t>
         </is>
       </c>
-      <c r="V113" t="inlineStr">
+      <c r="W113" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr">
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y113" t="inlineStr">
+      <c r="Z113" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
+      <c r="AA113" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
       <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9038,46 +9160,47 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
         <is>
           <t>MetTmWk</t>
         </is>
       </c>
-      <c r="V114" t="inlineStr">
+      <c r="W114" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr">
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y114" t="inlineStr">
+      <c r="Z114" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
+      <c r="AA114" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9109,42 +9232,43 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr">
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
         <is>
           <t>MoudMinDis</t>
         </is>
       </c>
-      <c r="V115" t="inlineStr">
+      <c r="W115" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr">
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y115" t="inlineStr">
+      <c r="Z115" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
+      <c r="AA115" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9176,42 +9300,43 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr">
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr">
         <is>
           <t>NaltCntBk30</t>
         </is>
       </c>
-      <c r="V116" t="inlineStr">
+      <c r="W116" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr">
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y116" t="inlineStr">
+      <c r="Z116" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
+      <c r="AA116" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9243,42 +9368,43 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr">
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr">
         <is>
           <t>NaltCntBk60</t>
         </is>
       </c>
-      <c r="V117" t="inlineStr">
+      <c r="W117" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr">
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y117" t="inlineStr">
+      <c r="Z117" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="AA117" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9310,42 +9436,43 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr">
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr">
         <is>
           <t>NaltCntDr30</t>
         </is>
       </c>
-      <c r="V118" t="inlineStr">
+      <c r="W118" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr">
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y118" t="inlineStr">
+      <c r="Z118" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
+      <c r="AA118" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9373,42 +9500,43 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr">
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr">
         <is>
           <t>NaltCntDr60</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr">
+      <c r="W119" t="inlineStr">
         <is>
           <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr">
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y119" t="inlineStr">
+      <c r="Z119" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
+      <c r="AA119" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9440,42 +9568,43 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr">
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
         <is>
           <t>NaltCntWk30</t>
         </is>
       </c>
-      <c r="V120" t="inlineStr">
+      <c r="W120" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr">
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y120" t="inlineStr">
+      <c r="Z120" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
+      <c r="AA120" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9507,42 +9636,43 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr">
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr">
         <is>
           <t>NaltCntWk60</t>
         </is>
       </c>
-      <c r="V121" t="inlineStr">
+      <c r="W121" t="inlineStr">
         <is>
           <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr">
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y121" t="inlineStr">
+      <c r="Z121" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
+      <c r="AA121" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
       <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9574,42 +9704,43 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr">
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr">
         <is>
           <t>NaltMinDis</t>
         </is>
       </c>
-      <c r="V122" t="inlineStr">
+      <c r="W122" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr">
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y122" t="inlineStr">
+      <c r="Z122" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
+      <c r="AA122" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
       <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9641,46 +9772,47 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr">
         <is>
           <t>NaltTmBk</t>
         </is>
       </c>
-      <c r="V123" t="inlineStr">
+      <c r="W123" t="inlineStr">
         <is>
           <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr">
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y123" t="inlineStr">
+      <c r="Z123" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
+      <c r="AA123" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
       <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9712,46 +9844,47 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr">
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr">
         <is>
           <t>NaltTmDr</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr">
+      <c r="W124" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr">
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y124" t="inlineStr">
+      <c r="Z124" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr">
+      <c r="AA124" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr"/>
       <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9783,46 +9916,47 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr">
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr">
         <is>
           <t>NaltTmWk</t>
         </is>
       </c>
-      <c r="V125" t="inlineStr">
+      <c r="W125" t="inlineStr">
         <is>
           <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr">
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y125" t="inlineStr">
+      <c r="Z125" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
+      <c r="AA125" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr"/>
       <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9854,42 +9988,43 @@
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr">
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr">
         <is>
           <t>OtpCntDr</t>
         </is>
       </c>
-      <c r="V126" t="inlineStr">
+      <c r="W126" t="inlineStr">
         <is>
           <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr">
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
+      <c r="Z126" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
+      <c r="AA126" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr"/>
       <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9921,42 +10056,43 @@
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr">
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
         <is>
           <t>OtpMinDis</t>
         </is>
       </c>
-      <c r="V127" t="inlineStr">
+      <c r="W127" t="inlineStr">
         <is>
           <t>Distance to nearest OTP</t>
         </is>
       </c>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr">
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y127" t="inlineStr">
+      <c r="Z127" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
+      <c r="AA127" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="inlineStr"/>
       <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9988,46 +10124,47 @@
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr">
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
         <is>
           <t>OtpTmDr</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr">
+      <c r="W128" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr">
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y128" t="inlineStr">
+      <c r="Z128" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
+      <c r="AA128" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="inlineStr"/>
       <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10055,42 +10192,43 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr">
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
         <is>
           <t>TlBupCntBk30</t>
         </is>
       </c>
-      <c r="V129" t="inlineStr">
+      <c r="W129" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
         </is>
       </c>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr">
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y129" t="inlineStr">
+      <c r="Z129" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
+      <c r="AA129" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr"/>
       <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10118,42 +10256,43 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr">
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
         <is>
           <t>TlBupCntDr30</t>
         </is>
       </c>
-      <c r="V130" t="inlineStr">
+      <c r="W130" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
         </is>
       </c>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr">
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y130" t="inlineStr">
+      <c r="Z130" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
+      <c r="AA130" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="inlineStr"/>
       <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10181,42 +10320,43 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr">
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr">
         <is>
           <t>TlBupCntDr60</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
         </is>
       </c>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr">
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y131" t="inlineStr">
+      <c r="Z131" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr">
+      <c r="AA131" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr"/>
       <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10244,42 +10384,43 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr">
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr">
         <is>
           <t>TlBupCntWk30</t>
         </is>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
         </is>
       </c>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr">
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y132" t="inlineStr">
+      <c r="Z132" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr">
+      <c r="AA132" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="inlineStr"/>
       <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10307,42 +10448,43 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr">
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr">
         <is>
           <t>TlBupMinDis</t>
         </is>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr">
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y133" t="inlineStr">
+      <c r="Z133" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr">
+      <c r="AA133" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="inlineStr"/>
       <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10370,42 +10512,43 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr">
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr">
         <is>
           <t>TlBupTmBk</t>
         </is>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr">
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y134" t="inlineStr">
+      <c r="Z134" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr">
+      <c r="AA134" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="inlineStr"/>
       <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10433,42 +10576,43 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr">
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr">
         <is>
           <t>TlBupTmDr</t>
         </is>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr">
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y135" t="inlineStr">
+      <c r="Z135" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr">
+      <c r="AA135" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="inlineStr"/>
       <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10496,42 +10640,43 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr">
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr">
         <is>
           <t>TlBupTmWk</t>
         </is>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="W136" t="inlineStr">
         <is>
           <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr">
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
-      <c r="Y136" t="inlineStr">
+      <c r="Z136" t="inlineStr">
         <is>
           <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
+      <c r="AA136" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
-      <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10563,42 +10708,43 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr">
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr">
         <is>
           <t>MhCntDr</t>
         </is>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr">
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y137" t="inlineStr">
+      <c r="Z137" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
+      <c r="AA137" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
       <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10630,42 +10776,43 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr">
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr">
         <is>
           <t>MhMinDis</t>
         </is>
       </c>
-      <c r="V138" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr">
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y138" t="inlineStr">
+      <c r="Z138" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
+      <c r="AA138" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="inlineStr"/>
       <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10697,46 +10844,47 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr">
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr">
         <is>
           <t>MhTmDr</t>
         </is>
       </c>
-      <c r="V139" t="inlineStr">
+      <c r="W139" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr">
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
-      <c r="Y139" t="inlineStr">
+      <c r="Z139" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
+      <c r="AA139" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
       <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10771,35 +10919,36 @@
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr">
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr">
         <is>
           <t>RxCntDr</t>
         </is>
       </c>
-      <c r="V140" t="inlineStr">
+      <c r="W140" t="inlineStr">
         <is>
           <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr">
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y140" t="inlineStr">
+      <c r="Z140" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
+      <c r="AA140" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="inlineStr"/>
       <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10834,35 +10983,36 @@
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr">
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr">
         <is>
           <t>RxMinDis</t>
         </is>
       </c>
-      <c r="V141" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr">
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y141" t="inlineStr">
+      <c r="Z141" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
+      <c r="AA141" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr"/>
       <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10895,41 +11045,42 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr">
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr">
         <is>
           <t>RxTmDr</t>
         </is>
       </c>
-      <c r="V142" t="inlineStr">
+      <c r="W142" t="inlineStr">
         <is>
           <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr">
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
-      <c r="Y142" t="inlineStr">
+      <c r="Z142" t="inlineStr">
         <is>
           <t>InfoGroup 2019</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
+      <c r="AA142" t="inlineStr">
         <is>
           <t>InfoGroup, 2019</t>
         </is>
       </c>
-      <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
       <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10961,42 +11112,43 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr">
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
         <is>
           <t>SutCntDr</t>
         </is>
       </c>
-      <c r="V143" t="inlineStr">
+      <c r="W143" t="inlineStr">
         <is>
           <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr">
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y143" t="inlineStr">
+      <c r="Z143" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
+      <c r="AA143" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
       <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11028,42 +11180,43 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr">
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
         <is>
           <t>SutMinDis</t>
         </is>
       </c>
-      <c r="V144" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr">
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y144" t="inlineStr">
+      <c r="Z144" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
+      <c r="AA144" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="inlineStr"/>
       <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11095,46 +11248,47 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr">
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
         <is>
           <t>SutTmDr</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="W145" t="inlineStr">
         <is>
           <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr">
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
-      <c r="Y145" t="inlineStr">
+      <c r="Z145" t="inlineStr">
         <is>
           <t>SAMHSA 2020</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
+      <c r="AA145" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
-      <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
       <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11162,42 +11316,43 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr">
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr">
         <is>
           <t>HcvCntDr</t>
         </is>
       </c>
-      <c r="V146" t="inlineStr">
+      <c r="W146" t="inlineStr">
         <is>
           <t>Count of HCV Providers</t>
         </is>
       </c>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr">
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y146" t="inlineStr">
+      <c r="Z146" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
+      <c r="AA146" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
       <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11225,42 +11380,43 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr">
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
         <is>
           <t>HcvMinDis</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr">
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y147" t="inlineStr">
+      <c r="Z147" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
+      <c r="AA147" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
       <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11288,42 +11444,43 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr">
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr">
         <is>
           <t>HcvTmDr</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr">
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y148" t="inlineStr">
+      <c r="Z148" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
+      <c r="AA148" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
       <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11351,42 +11508,43 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr">
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr">
         <is>
           <t>HivCntDr</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="W149" t="inlineStr">
         <is>
           <t>Count of HIV Providers</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr">
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y149" t="inlineStr">
+      <c r="Z149" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
+      <c r="AA149" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="inlineStr"/>
       <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11414,42 +11572,43 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr">
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr">
         <is>
           <t>HivMinDis</t>
         </is>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="W150" t="inlineStr">
         <is>
           <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr">
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y150" t="inlineStr">
+      <c r="Z150" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
+      <c r="AA150" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
       <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11477,42 +11636,43 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr">
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr">
         <is>
           <t>HivTmDr</t>
         </is>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="W151" t="inlineStr">
         <is>
           <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr">
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
-      <c r="Y151" t="inlineStr">
+      <c r="Z151" t="inlineStr">
         <is>
           <t>SAMHSA 2025</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
+      <c r="AA151" t="inlineStr">
         <is>
           <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
-      <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
       <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11544,42 +11704,43 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr">
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr">
         <is>
           <t>FqhcCntDr</t>
         </is>
       </c>
-      <c r="V152" t="inlineStr">
+      <c r="W152" t="inlineStr">
         <is>
           <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr">
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y152" t="inlineStr">
+      <c r="Z152" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
+      <c r="AA152" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
       <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11611,42 +11772,43 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr">
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
         <is>
           <t>FqhcMinDis</t>
         </is>
       </c>
-      <c r="V153" t="inlineStr">
+      <c r="W153" t="inlineStr">
         <is>
           <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr">
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y153" t="inlineStr">
+      <c r="Z153" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
+      <c r="AA153" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="inlineStr"/>
       <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11678,46 +11840,47 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr">
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
         <is>
           <t>FqhcTmDr</t>
         </is>
       </c>
-      <c r="V154" t="inlineStr">
+      <c r="W154" t="inlineStr">
         <is>
           <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr">
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
-      <c r="Y154" t="inlineStr">
+      <c r="Z154" t="inlineStr">
         <is>
           <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
+      <c r="AA154" t="inlineStr">
         <is>
           <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
-      <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
       <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11752,35 +11915,36 @@
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr">
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
         <is>
           <t>Ruca1</t>
         </is>
       </c>
-      <c r="V155" t="inlineStr">
+      <c r="W155" t="inlineStr">
         <is>
           <t>Primary RUCA Code</t>
         </is>
       </c>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr">
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y155" t="inlineStr">
+      <c r="Z155" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
+      <c r="AA155" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="inlineStr"/>
       <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11815,35 +11979,36 @@
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr">
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
         <is>
           <t>Ruca2</t>
         </is>
       </c>
-      <c r="V156" t="inlineStr">
+      <c r="W156" t="inlineStr">
         <is>
           <t>Secondary RUCA Code</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr">
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y156" t="inlineStr">
+      <c r="Z156" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
+      <c r="AA156" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11876,41 +12041,42 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr">
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
         <is>
           <t>Rurality</t>
         </is>
       </c>
-      <c r="V157" t="inlineStr">
+      <c r="W157" t="inlineStr">
         <is>
           <t>Urban-Suburban-Rural</t>
         </is>
       </c>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr">
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
-      <c r="Y157" t="inlineStr">
+      <c r="Z157" t="inlineStr">
         <is>
           <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
+      <c r="AA157" t="inlineStr">
         <is>
           <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11945,35 +12111,36 @@
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr">
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr">
         <is>
           <t>EssnWrkE</t>
         </is>
       </c>
-      <c r="V158" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>Count of Essential Workers</t>
         </is>
       </c>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr">
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y158" t="inlineStr">
+      <c r="Z158" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
+      <c r="AA158" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
       <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12016,35 +12183,36 @@
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr">
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
         <is>
           <t>EssnWrkP</t>
         </is>
       </c>
-      <c r="V159" t="inlineStr">
+      <c r="W159" t="inlineStr">
         <is>
           <t>Essential Workers %</t>
         </is>
       </c>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr">
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y159" t="inlineStr">
+      <c r="Z159" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
+      <c r="AA159" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
       <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12087,35 +12255,36 @@
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr">
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
         <is>
           <t>HghRskP</t>
         </is>
       </c>
-      <c r="V160" t="inlineStr">
+      <c r="W160" t="inlineStr">
         <is>
           <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr">
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr">
+      <c r="Z160" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
+      <c r="AA160" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA160" t="inlineStr"/>
       <c r="AB160" t="inlineStr"/>
       <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12158,35 +12327,36 @@
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr">
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
         <is>
           <t>HltCrP</t>
         </is>
       </c>
-      <c r="V161" t="inlineStr">
+      <c r="W161" t="inlineStr">
         <is>
           <t>Employed % - Health Care</t>
         </is>
       </c>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr">
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y161" t="inlineStr">
+      <c r="Z161" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
+      <c r="AA161" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
       <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12229,35 +12399,36 @@
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr">
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
         <is>
           <t>RetailP</t>
         </is>
       </c>
-      <c r="V162" t="inlineStr">
+      <c r="W162" t="inlineStr">
         <is>
           <t>Employed % - Retail</t>
         </is>
       </c>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr">
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y162" t="inlineStr">
+      <c r="Z162" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
+      <c r="AA162" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
       <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12300,35 +12471,36 @@
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr">
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr">
         <is>
           <t>TotWrkE</t>
         </is>
       </c>
-      <c r="V163" t="inlineStr">
+      <c r="W163" t="inlineStr">
         <is>
           <t>Count of Working Population</t>
         </is>
       </c>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr">
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
-      <c r="Y163" t="inlineStr">
+      <c r="Z163" t="inlineStr">
         <is>
           <t>ACS 2018, 2023</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
+      <c r="AA163" t="inlineStr">
         <is>
           <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA163" t="inlineStr"/>
       <c r="AB163" t="inlineStr"/>
       <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12375,35 +12547,36 @@
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr">
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr">
         <is>
           <t>GiniCoeff</t>
         </is>
       </c>
-      <c r="V164" t="inlineStr">
+      <c r="W164" t="inlineStr">
         <is>
           <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr">
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
-      <c r="Y164" t="inlineStr">
+      <c r="Z164" t="inlineStr">
         <is>
           <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
+      <c r="AA164" t="inlineStr">
         <is>
           <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
-      <c r="AA164" t="inlineStr"/>
       <c r="AB164" t="inlineStr"/>
       <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12438,35 +12611,36 @@
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr">
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
         <is>
           <t>NoIntP</t>
         </is>
       </c>
-      <c r="V165" t="inlineStr">
+      <c r="W165" t="inlineStr">
         <is>
           <t>Households without Internet Access %</t>
         </is>
       </c>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr">
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
-      <c r="Y165" t="inlineStr">
+      <c r="Z165" t="inlineStr">
         <is>
           <t>ACS 2019</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
+      <c r="AA165" t="inlineStr">
         <is>
           <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
-      <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12513,35 +12687,36 @@
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr">
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
         <is>
           <t>MedInc</t>
         </is>
       </c>
-      <c r="V166" t="inlineStr">
+      <c r="W166" t="inlineStr">
         <is>
           <t>Median Income</t>
         </is>
       </c>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr">
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y166" t="inlineStr">
+      <c r="Z166" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
+      <c r="AA166" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA166" t="inlineStr"/>
       <c r="AB166" t="inlineStr"/>
       <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12588,35 +12763,36 @@
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr">
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr">
         <is>
           <t>PciE</t>
         </is>
       </c>
-      <c r="V167" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>Per Capita Income</t>
         </is>
       </c>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr">
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr">
+      <c r="Z167" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
+      <c r="AA167" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA167" t="inlineStr"/>
       <c r="AB167" t="inlineStr"/>
       <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12674,40 +12850,41 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
           <t>PovP</t>
         </is>
       </c>
-      <c r="V168" t="inlineStr">
+      <c r="W168" t="inlineStr">
         <is>
           <t>Poverty %</t>
         </is>
       </c>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr">
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
+      <c r="Z168" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
+      <c r="AA168" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA168" t="inlineStr"/>
       <c r="AB168" t="inlineStr"/>
       <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12765,40 +12942,41 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
           <t>UnempP</t>
         </is>
       </c>
-      <c r="V169" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>Unemployment %</t>
         </is>
       </c>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr">
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
+      <c r="Z169" t="inlineStr">
         <is>
           <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
+      <c r="AA169" t="inlineStr">
         <is>
           <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
-      <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
       <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12841,35 +13019,36 @@
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr">
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr">
         <is>
           <t>SviSmryRnk</t>
         </is>
       </c>
-      <c r="V170" t="inlineStr">
+      <c r="W170" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr">
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y170" t="inlineStr">
+      <c r="Z170" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
+      <c r="AA170" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA170" t="inlineStr"/>
       <c r="AB170" t="inlineStr"/>
       <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12910,41 +13089,42 @@
       </c>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr">
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr">
         <is>
           <t>SviTh1</t>
         </is>
       </c>
-      <c r="V171" t="inlineStr">
+      <c r="W171" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr">
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
+      <c r="Z171" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
+      <c r="AA171" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12987,35 +13167,36 @@
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr">
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr">
         <is>
           <t>SviTh2</t>
         </is>
       </c>
-      <c r="V172" t="inlineStr">
+      <c r="W172" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr">
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y172" t="inlineStr">
+      <c r="Z172" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z172" t="inlineStr">
+      <c r="AA172" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13058,35 +13239,36 @@
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr">
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr">
         <is>
           <t>SviTh3</t>
         </is>
       </c>
-      <c r="V173" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr">
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y173" t="inlineStr">
+      <c r="Z173" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z173" t="inlineStr">
+      <c r="AA173" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13127,41 +13309,42 @@
       </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr">
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr">
         <is>
           <t>SviTh4</t>
         </is>
       </c>
-      <c r="V174" t="inlineStr">
+      <c r="W174" t="inlineStr">
         <is>
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr">
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
-      <c r="Y174" t="inlineStr">
+      <c r="Z174" t="inlineStr">
         <is>
           <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr">
+      <c r="AA174" t="inlineStr">
         <is>
           <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
-      <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -11298,7 +11298,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11312,7 +11312,11 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
@@ -11326,28 +11330,28 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>HcvCntDr</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Count of HCV Providers</t>
+          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11362,7 +11366,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11376,7 +11380,11 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
@@ -11390,28 +11398,28 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>HcvMinDis</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Distance to nearest HCV Provider</t>
+          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -11426,7 +11434,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11440,7 +11448,11 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -11450,32 +11462,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>HcvTmDr</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Driving time to nearest HCV Provider</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11518,12 +11534,12 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>HivCntDr</t>
+          <t>HcvCntDr</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Count of HIV Providers</t>
+          <t>Count of HCV Providers</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
@@ -11582,12 +11598,12 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>HivMinDis</t>
+          <t>HcvMinDis</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Distance to nearest HIV Provider</t>
+          <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
@@ -11646,12 +11662,12 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>HivTmDr</t>
+          <t>HcvTmDr</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Driving time to nearest HIV Provider</t>
+          <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
@@ -11682,7 +11698,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11696,11 +11712,7 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
@@ -11714,28 +11726,28 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>HivCntDr</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Count of HIV Providers</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11750,7 +11762,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11764,11 +11776,7 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
@@ -11782,28 +11790,28 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>HivMinDis</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -11818,7 +11826,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11832,11 +11840,7 @@
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -11846,36 +11850,32 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>HivTmDr</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>SAMHSA 2025</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>

--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD174"/>
+  <dimension ref="A1:AD157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7649,11 +7649,7 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
@@ -7717,11 +7713,7 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
@@ -7785,11 +7777,7 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
           <t>x</t>
@@ -7857,11 +7845,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
@@ -7925,11 +7909,7 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
@@ -7993,11 +7973,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
@@ -8052,26 +8028,26 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8125,21 +8101,17 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
@@ -8193,21 +8165,17 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -8266,16 +8234,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -8342,12 +8314,12 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X102" t="inlineStr"/>
@@ -8414,12 +8386,12 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -8473,25 +8445,17 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -8545,21 +8509,17 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -8613,21 +8573,17 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -8681,21 +8637,17 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -8740,26 +8692,26 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
@@ -8813,21 +8765,17 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
@@ -8886,16 +8834,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr"/>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
@@ -8954,16 +8906,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr"/>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
@@ -9030,12 +8986,12 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -9089,25 +9045,17 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -9161,25 +9109,17 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -9233,21 +9173,17 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -9301,21 +9237,17 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -9369,21 +9301,17 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -9437,21 +9365,17 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -9496,26 +9420,26 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -9574,16 +9498,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
@@ -9642,16 +9570,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T121" t="inlineStr"/>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
@@ -9710,16 +9642,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T122" t="inlineStr"/>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
@@ -9764,34 +9700,26 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
@@ -9836,34 +9764,26 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
@@ -9908,20 +9828,16 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
           <t>x</t>
@@ -9930,12 +9846,12 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
@@ -9966,7 +9882,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -9980,46 +9896,42 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr"/>
@@ -10034,7 +9946,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -10048,46 +9960,42 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr"/>
@@ -10102,7 +10010,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -10116,20 +10024,16 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
           <t>x</t>
@@ -10138,28 +10042,28 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr"/>
@@ -10174,7 +10078,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -10187,43 +10091,43 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>TlBupCntBk30</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
+          <t>Count of Pharmacies (30-min drive)</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -10238,7 +10142,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -10251,43 +10155,43 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>TlBupCntDr30</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr"/>
@@ -10302,7 +10206,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -10315,43 +10219,47 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>TlBupCntDr60</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr"/>
@@ -10366,7 +10274,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -10380,42 +10288,42 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>TlBupCntWk30</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr"/>
@@ -10430,7 +10338,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -10444,42 +10352,42 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr"/>
@@ -10494,7 +10402,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -10508,42 +10416,46 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -10558,7 +10470,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10572,7 +10484,11 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
@@ -10586,28 +10502,28 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr"/>
@@ -10622,7 +10538,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -10636,42 +10552,42 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -10686,7 +10602,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -10714,32 +10630,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr"/>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -10754,13 +10674,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -10768,46 +10692,38 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -10822,13 +10738,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -10836,50 +10756,38 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr"/>
@@ -10894,56 +10802,60 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>USDA-ERS 2010; ACS 2018</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -10953,12 +10865,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -10970,12 +10882,12 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -10986,28 +10898,28 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11017,12 +10929,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -11034,48 +10946,52 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -11085,12 +11001,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -11102,7 +11018,11 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
@@ -11111,39 +11031,39 @@
       </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr"/>
@@ -11153,12 +11073,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11170,7 +11090,11 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
@@ -11179,39 +11103,39 @@
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr"/>
@@ -11221,12 +11145,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11238,7 +11162,11 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
@@ -11247,43 +11175,39 @@
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -11293,12 +11217,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11310,7 +11234,11 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
@@ -11319,39 +11247,39 @@
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Count of Federally Qualified Health Centers (FQHCs) within 30-min drive</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11361,24 +11289,32 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
@@ -11387,39 +11323,39 @@
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Federally Qualified Health Centers (FQHC)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -11429,12 +11365,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11447,51 +11383,43 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Federally Qualified Health Centers (FQHC)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11501,61 +11429,73 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>HcvCntDr</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Count of HCV Providers</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -11565,61 +11505,73 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>HcvMinDis</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Distance to nearest HCV Provider</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -11629,61 +11581,89 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>HcvTmDr</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Driving time to nearest HCV Provider</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -11693,61 +11673,89 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>HivCntDr</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Count of HIV Providers</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11757,12 +11765,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11774,44 +11782,52 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>HivMinDis</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Distance to nearest HIV Provider</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -11821,12 +11837,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11838,44 +11854,56 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>HivTmDr</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Driving time to nearest HIV Provider</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>
@@ -11885,32 +11913,40 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
@@ -11918,28 +11954,28 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr"/>
@@ -11949,32 +11985,40 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
@@ -11982,28 +12026,28 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12013,32 +12057,40 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Social Vulnerability Indices</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
@@ -12050,1301 +12102,33 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010; ACS 2018</t>
+          <t>CDC 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Centers for Disease Control, 2018, 2020, 2022</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr"/>
       <c r="AC157" t="inlineStr"/>
       <c r="AD157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr">
-        <is>
-          <t>EssnWrkE</t>
-        </is>
-      </c>
-      <c r="W158" t="inlineStr">
-        <is>
-          <t>Count of Essential Workers</t>
-        </is>
-      </c>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA158" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB158" t="inlineStr"/>
-      <c r="AC158" t="inlineStr"/>
-      <c r="AD158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr">
-        <is>
-          <t>EssnWrkP</t>
-        </is>
-      </c>
-      <c r="W159" t="inlineStr">
-        <is>
-          <t>Essential Workers %</t>
-        </is>
-      </c>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA159" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB159" t="inlineStr"/>
-      <c r="AC159" t="inlineStr"/>
-      <c r="AD159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>HghRskP</t>
-        </is>
-      </c>
-      <c r="W160" t="inlineStr">
-        <is>
-          <t>Employed % - High Risk of Injury</t>
-        </is>
-      </c>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA160" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr">
-        <is>
-          <t>HltCrP</t>
-        </is>
-      </c>
-      <c r="W161" t="inlineStr">
-        <is>
-          <t>Employed % - Health Care</t>
-        </is>
-      </c>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA161" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB161" t="inlineStr"/>
-      <c r="AC161" t="inlineStr"/>
-      <c r="AD161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>RetailP</t>
-        </is>
-      </c>
-      <c r="W162" t="inlineStr">
-        <is>
-          <t>Employed % - Retail</t>
-        </is>
-      </c>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z162" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA162" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB162" t="inlineStr"/>
-      <c r="AC162" t="inlineStr"/>
-      <c r="AD162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr">
-        <is>
-          <t>TotWrkE</t>
-        </is>
-      </c>
-      <c r="W163" t="inlineStr">
-        <is>
-          <t>Count of Working Population</t>
-        </is>
-      </c>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
-        </is>
-      </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>ACS 2018, 2023</t>
-        </is>
-      </c>
-      <c r="AA163" t="inlineStr">
-        <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB163" t="inlineStr"/>
-      <c r="AC163" t="inlineStr"/>
-      <c r="AD163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Great Recession Foreclosure Rate</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr">
-        <is>
-          <t>GiniCoeff</t>
-        </is>
-      </c>
-      <c r="W164" t="inlineStr">
-        <is>
-          <t>Income Inequality (Gini Coefficient)</t>
-        </is>
-      </c>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
-        </is>
-      </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
-        </is>
-      </c>
-      <c r="AA164" t="inlineStr">
-        <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
-        </is>
-      </c>
-      <c r="AB164" t="inlineStr"/>
-      <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Internet Access</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>NoIntP</t>
-        </is>
-      </c>
-      <c r="W165" t="inlineStr">
-        <is>
-          <t>Households without Internet Access %</t>
-        </is>
-      </c>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
-        </is>
-      </c>
-      <c r="Z165" t="inlineStr">
-        <is>
-          <t>ACS 2019</t>
-        </is>
-      </c>
-      <c r="AA165" t="inlineStr">
-        <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
-        </is>
-      </c>
-      <c r="AB165" t="inlineStr"/>
-      <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr">
-        <is>
-          <t>MedInc</t>
-        </is>
-      </c>
-      <c r="W166" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA166" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB166" t="inlineStr"/>
-      <c r="AC166" t="inlineStr"/>
-      <c r="AD166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr">
-        <is>
-          <t>PciE</t>
-        </is>
-      </c>
-      <c r="W167" t="inlineStr">
-        <is>
-          <t>Per Capita Income</t>
-        </is>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z167" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA167" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB167" t="inlineStr"/>
-      <c r="AC167" t="inlineStr"/>
-      <c r="AD167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V168" t="inlineStr">
-        <is>
-          <t>PovP</t>
-        </is>
-      </c>
-      <c r="W168" t="inlineStr">
-        <is>
-          <t>Poverty %</t>
-        </is>
-      </c>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z168" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA168" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB168" t="inlineStr"/>
-      <c r="AC168" t="inlineStr"/>
-      <c r="AD168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>UnempP</t>
-        </is>
-      </c>
-      <c r="W169" t="inlineStr">
-        <is>
-          <t>Unemployment %</t>
-        </is>
-      </c>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
-        </is>
-      </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
-        </is>
-      </c>
-      <c r="AA169" t="inlineStr">
-        <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
-        </is>
-      </c>
-      <c r="AB169" t="inlineStr"/>
-      <c r="AC169" t="inlineStr"/>
-      <c r="AD169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="W170" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA170" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB170" t="inlineStr"/>
-      <c r="AC170" t="inlineStr"/>
-      <c r="AD170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr">
-        <is>
-          <t>SviTh1</t>
-        </is>
-      </c>
-      <c r="W171" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
-        </is>
-      </c>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z171" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA171" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB171" t="inlineStr"/>
-      <c r="AC171" t="inlineStr"/>
-      <c r="AD171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr">
-        <is>
-          <t>SviTh2</t>
-        </is>
-      </c>
-      <c r="W172" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
-        </is>
-      </c>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z172" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA172" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB172" t="inlineStr"/>
-      <c r="AC172" t="inlineStr"/>
-      <c r="AD172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>SviTh3</t>
-        </is>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
-        </is>
-      </c>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z173" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA173" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB173" t="inlineStr"/>
-      <c r="AC173" t="inlineStr"/>
-      <c r="AD173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Indices</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>SviTh4</t>
-        </is>
-      </c>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
-        </is>
-      </c>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Social_Vulnerability_Indices.md</t>
-        </is>
-      </c>
-      <c r="Z174" t="inlineStr">
-        <is>
-          <t>CDC 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AA174" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018, 2020, 2022</t>
-        </is>
-      </c>
-      <c r="AB174" t="inlineStr"/>
-      <c r="AC174" t="inlineStr"/>
-      <c r="AD174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/Z_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/Z_Dict.xlsx
@@ -8229,11 +8229,7 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
           <t>x</t>
@@ -8301,11 +8297,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
           <t>x</t>
@@ -8373,11 +8365,7 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>x</t>
@@ -8829,11 +8817,7 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
           <t>x</t>
@@ -8901,11 +8885,7 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
           <t>x</t>
@@ -8973,11 +8953,7 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
           <t>x</t>
@@ -9493,11 +9469,7 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
           <t>x</t>
@@ -9565,11 +9537,7 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
           <t>x</t>
@@ -9637,11 +9605,7 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr">
         <is>
           <t>x</t>
